--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250403/Winsap_CS/20.17.00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250416/Winsap_CS/20.17.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC361ED-5DF2-4B00-99D3-CD89E8CCDD44}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30637CDA-78A2-4E67-99E1-8048434625D2}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_vendor:Engineering Ingegneria Informatica SpA	</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1784,46 +1781,49 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>2025-03-28T10:02:18Z</t>
-  </si>
-  <si>
-    <t>0111aa00f6b93da4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.536920ca055604426724b87e4a6fd2cfbfe339e2838c550f95eadab143bb6fb9.d1ceb97cd8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-28T10:29:49Z</t>
-  </si>
-  <si>
-    <t>3ee4421dc376a985</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.92688ed5363591fa464379a8d9e79d55954023a1bfdf40dfe6706307ed3d9b72.7f95c7b3c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>subject_application_id:Winsap_CS</t>
   </si>
   <si>
     <t>subject_application_version:20.17.00</t>
   </si>
   <si>
-    <t>2025-04-03T11:56:20Z</t>
-  </si>
-  <si>
-    <t>2b2aa428ac734563</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.c5903d7f6c3e607bb4c9005016d029ef9150278e8a4fd26116b3e243eaf01e45.5c40a197ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-01T16:30:29Z</t>
-  </si>
-  <si>
-    <t>718fd0b6b2d962d3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.7c8a57047f16755dced0497ecf32d41dc2342c26e0ec426541aa165430659be2.de9cdef417^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-04-16T11:51:17Z</t>
+  </si>
+  <si>
+    <t>a9142a1b3a6ac1d45e878624d135cee9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.db15b8432453127e552b83e837f493a8001205f8743b3c2d9a23ad9f161a188a.7761b4c041^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-16T11:52:05Z</t>
+  </si>
+  <si>
+    <t>b92c252e441554a01e4dab076bf5bb66</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.fe81911f0900a3a64a5ddd069792320c35386d2cdb4fd9f6f80cccc033d89592.34afb11cec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-16T11:52:39Z</t>
+  </si>
+  <si>
+    <t>73587717df2acb4f6e5804925c78a118</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.d1d13bb2b841144982baf567c9f5768466f13b5b102bf811eccfe430c5dcee8a.440f679d9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-04-16T11:55:38Z</t>
+  </si>
+  <si>
+    <t>35a201bf560ba5a2b48db682bf9d6a31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.2a5a90a454b34878b68cae17c9e9fd14903a368839f491cf70b7bdab9cc8efba.ad87b7dd98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:Engineering_Ingegneria_Informatica_S.p.A</t>
   </si>
 </sst>
 </file>
@@ -3888,10 +3888,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -3990,7 +3990,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4017,7 +4017,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -4107,73 +4107,73 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="P9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="V9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="W9" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4181,16 +4181,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="D10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -4210,7 +4210,7 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="W10" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4218,16 +4218,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -4247,7 +4247,7 @@
       <c r="U11" s="34"/>
       <c r="V11" s="35"/>
       <c r="W11" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4255,16 +4255,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -4284,7 +4284,7 @@
       <c r="U12" s="34"/>
       <c r="V12" s="35"/>
       <c r="W12" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4292,16 +4292,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -4321,7 +4321,7 @@
       <c r="U13" s="34"/>
       <c r="V13" s="35"/>
       <c r="W13" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4329,16 +4329,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -4358,7 +4358,7 @@
       <c r="U14" s="34"/>
       <c r="V14" s="35"/>
       <c r="W14" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4366,16 +4366,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -4395,7 +4395,7 @@
       <c r="U15" s="34"/>
       <c r="V15" s="35"/>
       <c r="W15" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4403,16 +4403,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -4432,7 +4432,7 @@
       <c r="U16" s="34"/>
       <c r="V16" s="35"/>
       <c r="W16" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4440,16 +4440,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -4469,7 +4469,7 @@
       <c r="U17" s="34"/>
       <c r="V17" s="35"/>
       <c r="W17" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4477,16 +4477,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -4506,7 +4506,7 @@
       <c r="U18" s="34"/>
       <c r="V18" s="35"/>
       <c r="W18" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4514,16 +4514,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4543,7 +4543,7 @@
       <c r="U19" s="34"/>
       <c r="V19" s="35"/>
       <c r="W19" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4551,16 +4551,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4580,7 +4580,7 @@
       <c r="U20" s="34"/>
       <c r="V20" s="35"/>
       <c r="W20" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4588,16 +4588,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -4617,7 +4617,7 @@
       <c r="U21" s="34"/>
       <c r="V21" s="35"/>
       <c r="W21" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4625,16 +4625,16 @@
         <v>39</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -4654,7 +4654,7 @@
       <c r="U22" s="34"/>
       <c r="V22" s="35"/>
       <c r="W22" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4662,16 +4662,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -4691,7 +4691,7 @@
       <c r="U23" s="34"/>
       <c r="V23" s="35"/>
       <c r="W23" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4699,16 +4699,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4728,7 +4728,7 @@
       <c r="U24" s="34"/>
       <c r="V24" s="35"/>
       <c r="W24" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4736,16 +4736,16 @@
         <v>42</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4765,7 +4765,7 @@
       <c r="U25" s="34"/>
       <c r="V25" s="35"/>
       <c r="W25" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4773,16 +4773,16 @@
         <v>43</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4802,7 +4802,7 @@
       <c r="U26" s="34"/>
       <c r="V26" s="35"/>
       <c r="W26" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4810,16 +4810,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D27" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4837,11 +4837,11 @@
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
       <c r="U27" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4849,16 +4849,16 @@
         <v>45</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -4876,11 +4876,11 @@
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
       <c r="U28" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V28" s="35"/>
       <c r="W28" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4888,16 +4888,16 @@
         <v>46</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -4915,11 +4915,11 @@
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
       <c r="U29" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V29" s="35"/>
       <c r="W29" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4927,16 +4927,16 @@
         <v>47</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4954,11 +4954,11 @@
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V30" s="35"/>
       <c r="W30" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4966,16 +4966,16 @@
         <v>48</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4993,11 +4993,11 @@
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V31" s="35"/>
       <c r="W31" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5005,16 +5005,16 @@
         <v>49</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -5032,11 +5032,11 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
       <c r="U32" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V32" s="35"/>
       <c r="W32" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5044,16 +5044,16 @@
         <v>50</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -5071,11 +5071,11 @@
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
       <c r="U33" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V33" s="35"/>
       <c r="W33" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5083,16 +5083,16 @@
         <v>51</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -5110,11 +5110,11 @@
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
       <c r="U34" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V34" s="35"/>
       <c r="W34" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5122,16 +5122,16 @@
         <v>55</v>
       </c>
       <c r="B35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D35" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>86</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5151,7 +5151,7 @@
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
       <c r="W35" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5159,16 +5159,16 @@
         <v>56</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D36" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5188,7 +5188,7 @@
       <c r="U36" s="34"/>
       <c r="V36" s="35"/>
       <c r="W36" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5196,16 +5196,16 @@
         <v>57</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D37" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5225,7 +5225,7 @@
       <c r="U37" s="34"/>
       <c r="V37" s="35"/>
       <c r="W37" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5233,16 +5233,16 @@
         <v>58</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D38" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>92</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5262,7 +5262,7 @@
       <c r="U38" s="34"/>
       <c r="V38" s="35"/>
       <c r="W38" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5270,16 +5270,16 @@
         <v>59</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5299,7 +5299,7 @@
       <c r="U39" s="34"/>
       <c r="V39" s="35"/>
       <c r="W39" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5307,16 +5307,16 @@
         <v>60</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D40" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5336,7 +5336,7 @@
       <c r="U40" s="34"/>
       <c r="V40" s="35"/>
       <c r="W40" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5344,16 +5344,16 @@
         <v>61</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D41" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>98</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5373,7 +5373,7 @@
       <c r="U41" s="34"/>
       <c r="V41" s="35"/>
       <c r="W41" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5381,16 +5381,16 @@
         <v>62</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5410,7 +5410,7 @@
       <c r="U42" s="34"/>
       <c r="V42" s="35"/>
       <c r="W42" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5418,16 +5418,16 @@
         <v>64</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5447,7 +5447,7 @@
       <c r="U43" s="34"/>
       <c r="V43" s="35"/>
       <c r="W43" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5455,16 +5455,16 @@
         <v>66</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5484,7 +5484,7 @@
       <c r="U44" s="34"/>
       <c r="V44" s="35"/>
       <c r="W44" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5492,16 +5492,16 @@
         <v>67</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5521,7 +5521,7 @@
       <c r="U45" s="34"/>
       <c r="V45" s="35"/>
       <c r="W45" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5529,16 +5529,16 @@
         <v>68</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5558,7 +5558,7 @@
       <c r="U46" s="34"/>
       <c r="V46" s="35"/>
       <c r="W46" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5566,16 +5566,16 @@
         <v>69</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>110</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5595,7 +5595,7 @@
       <c r="U47" s="34"/>
       <c r="V47" s="35"/>
       <c r="W47" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5603,16 +5603,16 @@
         <v>70</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>112</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5632,7 +5632,7 @@
       <c r="U48" s="34"/>
       <c r="V48" s="35"/>
       <c r="W48" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5640,16 +5640,16 @@
         <v>71</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>114</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5669,7 +5669,7 @@
       <c r="U49" s="34"/>
       <c r="V49" s="35"/>
       <c r="W49" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5677,16 +5677,16 @@
         <v>72</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>115</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5706,7 +5706,7 @@
       <c r="U50" s="34"/>
       <c r="V50" s="35"/>
       <c r="W50" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5714,16 +5714,16 @@
         <v>73</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>117</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5743,7 +5743,7 @@
       <c r="U51" s="34"/>
       <c r="V51" s="35"/>
       <c r="W51" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5751,16 +5751,16 @@
         <v>74</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5780,7 +5780,7 @@
       <c r="U52" s="34"/>
       <c r="V52" s="35"/>
       <c r="W52" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5788,16 +5788,16 @@
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5817,7 +5817,7 @@
       <c r="U53" s="34"/>
       <c r="V53" s="35"/>
       <c r="W53" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5825,16 +5825,16 @@
         <v>78</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>123</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5854,7 +5854,7 @@
       <c r="U54" s="34"/>
       <c r="V54" s="35"/>
       <c r="W54" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5862,16 +5862,16 @@
         <v>79</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5891,7 +5891,7 @@
       <c r="U55" s="34"/>
       <c r="V55" s="35"/>
       <c r="W55" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5899,16 +5899,16 @@
         <v>80</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5928,7 +5928,7 @@
       <c r="U56" s="34"/>
       <c r="V56" s="35"/>
       <c r="W56" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5936,16 +5936,16 @@
         <v>81</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5965,7 +5965,7 @@
       <c r="U57" s="34"/>
       <c r="V57" s="35"/>
       <c r="W57" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5973,16 +5973,16 @@
         <v>82</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -6002,7 +6002,7 @@
       <c r="U58" s="34"/>
       <c r="V58" s="35"/>
       <c r="W58" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6010,16 +6010,16 @@
         <v>83</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="32" t="s">
         <v>133</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -6039,7 +6039,7 @@
       <c r="U59" s="34"/>
       <c r="V59" s="35"/>
       <c r="W59" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6047,16 +6047,16 @@
         <v>84</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="32" t="s">
         <v>135</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>136</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -6076,7 +6076,7 @@
       <c r="U60" s="34"/>
       <c r="V60" s="35"/>
       <c r="W60" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6084,16 +6084,16 @@
         <v>85</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -6113,7 +6113,7 @@
       <c r="U61" s="34"/>
       <c r="V61" s="35"/>
       <c r="W61" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6121,16 +6121,16 @@
         <v>86</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>140</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6150,7 +6150,7 @@
       <c r="U62" s="34"/>
       <c r="V62" s="35"/>
       <c r="W62" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6158,16 +6158,16 @@
         <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>142</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6187,7 +6187,7 @@
       <c r="U63" s="34"/>
       <c r="V63" s="35"/>
       <c r="W63" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6195,16 +6195,16 @@
         <v>88</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>144</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6224,7 +6224,7 @@
       <c r="U64" s="34"/>
       <c r="V64" s="35"/>
       <c r="W64" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6232,16 +6232,16 @@
         <v>89</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6261,7 +6261,7 @@
       <c r="U65" s="34"/>
       <c r="V65" s="35"/>
       <c r="W65" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6269,16 +6269,16 @@
         <v>90</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6298,7 +6298,7 @@
       <c r="U66" s="34"/>
       <c r="V66" s="35"/>
       <c r="W66" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6306,16 +6306,16 @@
         <v>91</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6335,7 +6335,7 @@
       <c r="U67" s="34"/>
       <c r="V67" s="35"/>
       <c r="W67" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6343,16 +6343,16 @@
         <v>92</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>152</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6372,7 +6372,7 @@
       <c r="U68" s="34"/>
       <c r="V68" s="35"/>
       <c r="W68" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6380,16 +6380,16 @@
         <v>93</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>154</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6409,7 +6409,7 @@
       <c r="U69" s="34"/>
       <c r="V69" s="35"/>
       <c r="W69" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6417,16 +6417,16 @@
         <v>95</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>156</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6446,7 +6446,7 @@
       <c r="U70" s="34"/>
       <c r="V70" s="35"/>
       <c r="W70" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6454,16 +6454,16 @@
         <v>97</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>158</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6483,7 +6483,7 @@
       <c r="U71" s="34"/>
       <c r="V71" s="35"/>
       <c r="W71" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6491,16 +6491,16 @@
         <v>98</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D72" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6520,7 +6520,7 @@
       <c r="U72" s="34"/>
       <c r="V72" s="35"/>
       <c r="W72" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6528,16 +6528,16 @@
         <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6557,7 +6557,7 @@
       <c r="U73" s="34"/>
       <c r="V73" s="35"/>
       <c r="W73" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6565,16 +6565,16 @@
         <v>100</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="32" t="s">
         <v>163</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>164</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6594,7 +6594,7 @@
       <c r="U74" s="34"/>
       <c r="V74" s="35"/>
       <c r="W74" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6602,16 +6602,16 @@
         <v>101</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6631,7 +6631,7 @@
       <c r="U75" s="34"/>
       <c r="V75" s="35"/>
       <c r="W75" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6639,16 +6639,16 @@
         <v>102</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>168</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6668,7 +6668,7 @@
       <c r="U76" s="34"/>
       <c r="V76" s="35"/>
       <c r="W76" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6676,16 +6676,16 @@
         <v>103</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>170</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6705,7 +6705,7 @@
       <c r="U77" s="34"/>
       <c r="V77" s="35"/>
       <c r="W77" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6713,16 +6713,16 @@
         <v>104</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D78" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>171</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>172</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6742,7 +6742,7 @@
       <c r="U78" s="34"/>
       <c r="V78" s="35"/>
       <c r="W78" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6750,16 +6750,16 @@
         <v>105</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>174</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6779,7 +6779,7 @@
       <c r="U79" s="34"/>
       <c r="V79" s="35"/>
       <c r="W79" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6787,16 +6787,16 @@
         <v>106</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>176</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6816,7 +6816,7 @@
       <c r="U80" s="34"/>
       <c r="V80" s="35"/>
       <c r="W80" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6824,16 +6824,16 @@
         <v>108</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D81" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6853,7 +6853,7 @@
       <c r="U81" s="34"/>
       <c r="V81" s="35"/>
       <c r="W81" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6861,16 +6861,16 @@
         <v>110</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>180</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6890,7 +6890,7 @@
       <c r="U82" s="34"/>
       <c r="V82" s="35"/>
       <c r="W82" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6898,16 +6898,16 @@
         <v>111</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D83" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>182</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6927,7 +6927,7 @@
       <c r="U83" s="34"/>
       <c r="V83" s="35"/>
       <c r="W83" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6935,16 +6935,16 @@
         <v>112</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D84" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" s="32" t="s">
         <v>183</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>184</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6964,7 +6964,7 @@
       <c r="U84" s="34"/>
       <c r="V84" s="35"/>
       <c r="W84" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6972,16 +6972,16 @@
         <v>113</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D85" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>186</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -7001,7 +7001,7 @@
       <c r="U85" s="34"/>
       <c r="V85" s="35"/>
       <c r="W85" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7009,16 +7009,16 @@
         <v>114</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D86" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>188</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -7038,7 +7038,7 @@
       <c r="U86" s="34"/>
       <c r="V86" s="35"/>
       <c r="W86" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7046,16 +7046,16 @@
         <v>115</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D87" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>190</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -7075,7 +7075,7 @@
       <c r="U87" s="34"/>
       <c r="V87" s="35"/>
       <c r="W87" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7083,16 +7083,16 @@
         <v>116</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>192</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7112,7 +7112,7 @@
       <c r="U88" s="34"/>
       <c r="V88" s="35"/>
       <c r="W88" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7120,16 +7120,16 @@
         <v>117</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D89" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>194</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7149,7 +7149,7 @@
       <c r="U89" s="34"/>
       <c r="V89" s="35"/>
       <c r="W89" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7157,16 +7157,16 @@
         <v>118</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7186,7 +7186,7 @@
       <c r="U90" s="34"/>
       <c r="V90" s="35"/>
       <c r="W90" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7194,16 +7194,16 @@
         <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D91" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="32" t="s">
         <v>197</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7223,7 +7223,7 @@
       <c r="U91" s="34"/>
       <c r="V91" s="35"/>
       <c r="W91" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7231,16 +7231,16 @@
         <v>120</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D92" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E92" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7260,7 +7260,7 @@
       <c r="U92" s="34"/>
       <c r="V92" s="35"/>
       <c r="W92" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7268,16 +7268,16 @@
         <v>121</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D93" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>202</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7297,7 +7297,7 @@
       <c r="U93" s="34"/>
       <c r="V93" s="35"/>
       <c r="W93" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7305,16 +7305,16 @@
         <v>123</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D94" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="32" t="s">
         <v>203</v>
-      </c>
-      <c r="E94" s="32" t="s">
-        <v>204</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7334,7 +7334,7 @@
       <c r="U94" s="34"/>
       <c r="V94" s="35"/>
       <c r="W94" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7342,16 +7342,16 @@
         <v>125</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D95" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>206</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7371,7 +7371,7 @@
       <c r="U95" s="34"/>
       <c r="V95" s="35"/>
       <c r="W95" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7379,16 +7379,16 @@
         <v>126</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D96" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="32" t="s">
         <v>207</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>208</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7408,7 +7408,7 @@
       <c r="U96" s="34"/>
       <c r="V96" s="35"/>
       <c r="W96" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7416,16 +7416,16 @@
         <v>127</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D97" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="E97" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7445,7 +7445,7 @@
       <c r="U97" s="34"/>
       <c r="V97" s="35"/>
       <c r="W97" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7453,16 +7453,16 @@
         <v>128</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D98" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>212</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7482,7 +7482,7 @@
       <c r="U98" s="34"/>
       <c r="V98" s="35"/>
       <c r="W98" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7490,16 +7490,16 @@
         <v>129</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7519,7 +7519,7 @@
       <c r="U99" s="34"/>
       <c r="V99" s="35"/>
       <c r="W99" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7527,16 +7527,16 @@
         <v>130</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D100" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>216</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7556,7 +7556,7 @@
       <c r="U100" s="34"/>
       <c r="V100" s="35"/>
       <c r="W100" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7564,16 +7564,16 @@
         <v>131</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D101" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>218</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7593,7 +7593,7 @@
       <c r="U101" s="34"/>
       <c r="V101" s="35"/>
       <c r="W101" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7601,16 +7601,16 @@
         <v>132</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D102" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>220</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7630,7 +7630,7 @@
       <c r="U102" s="34"/>
       <c r="V102" s="35"/>
       <c r="W102" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7638,16 +7638,16 @@
         <v>133</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7667,7 +7667,7 @@
       <c r="U103" s="34"/>
       <c r="V103" s="35"/>
       <c r="W103" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7675,16 +7675,16 @@
         <v>134</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D104" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7704,7 +7704,7 @@
       <c r="U104" s="34"/>
       <c r="V104" s="35"/>
       <c r="W104" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7712,16 +7712,16 @@
         <v>135</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D105" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7741,7 +7741,7 @@
       <c r="U105" s="34"/>
       <c r="V105" s="35"/>
       <c r="W105" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7749,16 +7749,16 @@
         <v>136</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7778,7 +7778,7 @@
       <c r="U106" s="34"/>
       <c r="V106" s="35"/>
       <c r="W106" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7786,16 +7786,16 @@
         <v>137</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D107" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7815,7 +7815,7 @@
       <c r="U107" s="34"/>
       <c r="V107" s="35"/>
       <c r="W107" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7823,16 +7823,16 @@
         <v>138</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D108" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7852,7 +7852,7 @@
       <c r="U108" s="34"/>
       <c r="V108" s="35"/>
       <c r="W108" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7860,16 +7860,16 @@
         <v>139</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D109" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>234</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7889,7 +7889,7 @@
       <c r="U109" s="34"/>
       <c r="V109" s="35"/>
       <c r="W109" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7897,16 +7897,16 @@
         <v>140</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D110" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>236</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7926,7 +7926,7 @@
       <c r="U110" s="34"/>
       <c r="V110" s="35"/>
       <c r="W110" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7934,16 +7934,16 @@
         <v>141</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D111" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7963,7 +7963,7 @@
       <c r="U111" s="34"/>
       <c r="V111" s="35"/>
       <c r="W111" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7971,16 +7971,16 @@
         <v>142</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D112" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -8000,7 +8000,7 @@
       <c r="U112" s="34"/>
       <c r="V112" s="35"/>
       <c r="W112" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8008,16 +8008,16 @@
         <v>143</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D113" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -8037,7 +8037,7 @@
       <c r="U113" s="34"/>
       <c r="V113" s="35"/>
       <c r="W113" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8045,16 +8045,16 @@
         <v>144</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D114" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="E114" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -8074,7 +8074,7 @@
       <c r="U114" s="34"/>
       <c r="V114" s="35"/>
       <c r="W114" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8082,16 +8082,16 @@
         <v>145</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D115" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E115" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>246</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8111,7 +8111,7 @@
       <c r="U115" s="34"/>
       <c r="V115" s="35"/>
       <c r="W115" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8119,16 +8119,16 @@
         <v>146</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D116" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="E116" s="32" t="s">
-        <v>248</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8148,7 +8148,7 @@
       <c r="U116" s="34"/>
       <c r="V116" s="35"/>
       <c r="W116" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8156,16 +8156,16 @@
         <v>152</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D117" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>250</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8185,7 +8185,7 @@
       <c r="U117" s="34"/>
       <c r="V117" s="35"/>
       <c r="W117" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8193,16 +8193,16 @@
         <v>154</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D118" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8222,7 +8222,7 @@
       <c r="U118" s="34"/>
       <c r="V118" s="35"/>
       <c r="W118" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8230,16 +8230,16 @@
         <v>155</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D119" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8259,7 +8259,7 @@
       <c r="U119" s="34"/>
       <c r="V119" s="35"/>
       <c r="W119" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8267,16 +8267,16 @@
         <v>156</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D120" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="E120" s="32" t="s">
-        <v>256</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8296,7 +8296,7 @@
       <c r="U120" s="34"/>
       <c r="V120" s="35"/>
       <c r="W120" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8304,16 +8304,16 @@
         <v>158</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D121" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>258</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8333,7 +8333,7 @@
       <c r="U121" s="34"/>
       <c r="V121" s="35"/>
       <c r="W121" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8341,16 +8341,16 @@
         <v>159</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D122" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="E122" s="32" t="s">
-        <v>260</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8370,7 +8370,7 @@
       <c r="U122" s="34"/>
       <c r="V122" s="35"/>
       <c r="W122" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8378,16 +8378,16 @@
         <v>160</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D123" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>262</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8407,7 +8407,7 @@
       <c r="U123" s="34"/>
       <c r="V123" s="35"/>
       <c r="W123" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8415,16 +8415,16 @@
         <v>161</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D124" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="E124" s="32" t="s">
-        <v>264</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8444,7 +8444,7 @@
       <c r="U124" s="34"/>
       <c r="V124" s="35"/>
       <c r="W124" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8452,16 +8452,16 @@
         <v>162</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D125" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="E125" s="32" t="s">
-        <v>266</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8481,7 +8481,7 @@
       <c r="U125" s="34"/>
       <c r="V125" s="35"/>
       <c r="W125" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8489,16 +8489,16 @@
         <v>163</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D126" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E126" s="32" t="s">
         <v>267</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>268</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8518,7 +8518,7 @@
       <c r="U126" s="34"/>
       <c r="V126" s="35"/>
       <c r="W126" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8526,16 +8526,16 @@
         <v>164</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D127" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>270</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8555,7 +8555,7 @@
       <c r="U127" s="34"/>
       <c r="V127" s="35"/>
       <c r="W127" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8563,16 +8563,16 @@
         <v>165</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D128" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="E128" s="32" t="s">
-        <v>272</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8592,7 +8592,7 @@
       <c r="U128" s="34"/>
       <c r="V128" s="35"/>
       <c r="W128" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8600,16 +8600,16 @@
         <v>166</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D129" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E129" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="E129" s="32" t="s">
-        <v>274</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8629,7 +8629,7 @@
       <c r="U129" s="34"/>
       <c r="V129" s="35"/>
       <c r="W129" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8637,16 +8637,16 @@
         <v>167</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D130" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E130" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="E130" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8666,7 +8666,7 @@
       <c r="U130" s="34"/>
       <c r="V130" s="35"/>
       <c r="W130" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8674,16 +8674,16 @@
         <v>168</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D131" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E131" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="E131" s="32" t="s">
-        <v>278</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -8703,7 +8703,7 @@
       <c r="U131" s="34"/>
       <c r="V131" s="35"/>
       <c r="W131" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8711,16 +8711,16 @@
         <v>169</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D132" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E132" s="32" t="s">
         <v>279</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>280</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -8740,7 +8740,7 @@
       <c r="U132" s="34"/>
       <c r="V132" s="35"/>
       <c r="W132" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8748,16 +8748,16 @@
         <v>175</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D133" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E133" s="32" t="s">
         <v>281</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>282</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -8777,7 +8777,7 @@
       <c r="U133" s="34"/>
       <c r="V133" s="35"/>
       <c r="W133" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8785,16 +8785,16 @@
         <v>177</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D134" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="E134" s="32" t="s">
-        <v>284</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -8814,7 +8814,7 @@
       <c r="U134" s="34"/>
       <c r="V134" s="35"/>
       <c r="W134" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8822,16 +8822,16 @@
         <v>178</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D135" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" s="32" t="s">
         <v>285</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>286</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -8851,7 +8851,7 @@
       <c r="U135" s="34"/>
       <c r="V135" s="35"/>
       <c r="W135" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8859,16 +8859,16 @@
         <v>179</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D136" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E136" s="32" t="s">
         <v>287</v>
-      </c>
-      <c r="E136" s="32" t="s">
-        <v>288</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -8888,7 +8888,7 @@
       <c r="U136" s="34"/>
       <c r="V136" s="35"/>
       <c r="W136" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8896,16 +8896,16 @@
         <v>180</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D137" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E137" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="E137" s="32" t="s">
-        <v>290</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -8925,7 +8925,7 @@
       <c r="U137" s="34"/>
       <c r="V137" s="35"/>
       <c r="W137" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8933,16 +8933,16 @@
         <v>181</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D138" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E138" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="E138" s="32" t="s">
-        <v>292</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -8962,7 +8962,7 @@
       <c r="U138" s="34"/>
       <c r="V138" s="35"/>
       <c r="W138" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -8970,16 +8970,16 @@
         <v>182</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D139" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="E139" s="32" t="s">
-        <v>294</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -8999,7 +8999,7 @@
       <c r="U139" s="34"/>
       <c r="V139" s="35"/>
       <c r="W139" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9007,16 +9007,16 @@
         <v>183</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D140" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="32" t="s">
         <v>295</v>
-      </c>
-      <c r="E140" s="32" t="s">
-        <v>296</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9036,7 +9036,7 @@
       <c r="U140" s="34"/>
       <c r="V140" s="35"/>
       <c r="W140" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9044,16 +9044,16 @@
         <v>184</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D141" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>298</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9073,7 +9073,7 @@
       <c r="U141" s="34"/>
       <c r="V141" s="35"/>
       <c r="W141" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9081,16 +9081,16 @@
         <v>185</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D142" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E142" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="E142" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9110,7 +9110,7 @@
       <c r="U142" s="34"/>
       <c r="V142" s="35"/>
       <c r="W142" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9118,16 +9118,16 @@
         <v>186</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D143" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E143" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9147,7 +9147,7 @@
       <c r="U143" s="34"/>
       <c r="V143" s="35"/>
       <c r="W143" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9155,16 +9155,16 @@
         <v>187</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D144" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="E144" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="E144" s="32" t="s">
-        <v>304</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9184,7 +9184,7 @@
       <c r="U144" s="34"/>
       <c r="V144" s="35"/>
       <c r="W144" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9192,16 +9192,16 @@
         <v>188</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D145" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E145" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="E145" s="32" t="s">
-        <v>306</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9221,7 +9221,7 @@
       <c r="U145" s="34"/>
       <c r="V145" s="35"/>
       <c r="W145" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9229,16 +9229,16 @@
         <v>189</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D146" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E146" s="32" t="s">
         <v>307</v>
-      </c>
-      <c r="E146" s="32" t="s">
-        <v>308</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9258,7 +9258,7 @@
       <c r="U146" s="34"/>
       <c r="V146" s="35"/>
       <c r="W146" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9266,16 +9266,16 @@
         <v>190</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D147" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E147" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>310</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9295,7 +9295,7 @@
       <c r="U147" s="34"/>
       <c r="V147" s="35"/>
       <c r="W147" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9303,16 +9303,16 @@
         <v>191</v>
       </c>
       <c r="B148" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D148" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E148" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="E148" s="32" t="s">
-        <v>312</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9332,7 +9332,7 @@
       <c r="U148" s="34"/>
       <c r="V148" s="35"/>
       <c r="W148" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9340,16 +9340,16 @@
         <v>376</v>
       </c>
       <c r="B149" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D149" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E149" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>314</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9369,7 +9369,7 @@
       <c r="U149" s="34"/>
       <c r="V149" s="35"/>
       <c r="W149" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9377,31 +9377,31 @@
         <v>417</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D150" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="E150" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E150" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="F150" s="33">
-        <v>45744</v>
+        <v>45763</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I150" s="39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J150" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K150" s="29"/>
       <c r="L150" s="29"/>
@@ -9416,7 +9416,7 @@
       <c r="U150" s="34"/>
       <c r="V150" s="35"/>
       <c r="W150" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="12.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9424,31 +9424,31 @@
         <v>418</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D151" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E151" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="E151" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="F151" s="33">
-        <v>45744</v>
+        <v>45763</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I151" s="39" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J151" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K151" s="29"/>
       <c r="L151" s="29"/>
@@ -9463,7 +9463,7 @@
       <c r="U151" s="34"/>
       <c r="V151" s="35"/>
       <c r="W151" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9471,31 +9471,31 @@
         <v>419</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D152" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E152" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="E152" s="32" t="s">
-        <v>321</v>
-      </c>
       <c r="F152" s="33">
-        <v>45750</v>
+        <v>45763</v>
       </c>
       <c r="G152" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="H152" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="H152" s="33" t="s">
+      <c r="I152" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="I152" s="39" t="s">
-        <v>471</v>
-      </c>
       <c r="J152" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
@@ -9510,7 +9510,7 @@
       <c r="U152" s="34"/>
       <c r="V152" s="35"/>
       <c r="W152" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9518,33 +9518,33 @@
         <v>423</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="39"/>
       <c r="J153" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K153" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="K153" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="L153" s="29"/>
       <c r="M153" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N153" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O153" s="29"/>
       <c r="P153" s="29"/>
@@ -9555,7 +9555,7 @@
       <c r="U153" s="34"/>
       <c r="V153" s="35"/>
       <c r="W153" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9563,33 +9563,33 @@
         <v>424</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="39"/>
       <c r="J154" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K154" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="K154" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="L154" s="29"/>
       <c r="M154" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N154" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O154" s="29"/>
       <c r="P154" s="29"/>
@@ -9600,7 +9600,7 @@
       <c r="U154" s="34"/>
       <c r="V154" s="35"/>
       <c r="W154" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9608,16 +9608,16 @@
         <v>425</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D155" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E155" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="E155" s="32" t="s">
-        <v>327</v>
       </c>
       <c r="F155" s="33">
         <v>45734</v>
@@ -9626,34 +9626,34 @@
       <c r="H155" s="33"/>
       <c r="I155" s="39"/>
       <c r="J155" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K155" s="29"/>
       <c r="L155" s="29"/>
       <c r="M155" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N155" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O155" s="29"/>
       <c r="P155" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q155" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R155" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S155" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T155" s="29"/>
       <c r="U155" s="34"/>
       <c r="V155" s="35"/>
       <c r="W155" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9661,26 +9661,26 @@
         <v>432</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D156" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="E156" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="E156" s="32" t="s">
-        <v>330</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="39"/>
       <c r="J156" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K156" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="K156" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="L156" s="29"/>
       <c r="M156" s="29"/>
@@ -9694,7 +9694,7 @@
       <c r="U156" s="34"/>
       <c r="V156" s="35"/>
       <c r="W156" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9702,60 +9702,60 @@
         <v>433</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D157" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E157" s="32" t="s">
         <v>331</v>
-      </c>
-      <c r="E157" s="32" t="s">
-        <v>332</v>
       </c>
       <c r="F157" s="33">
         <v>45735</v>
       </c>
       <c r="G157" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="H157" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="H157" s="33" t="s">
+      <c r="I157" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="I157" s="39" t="s">
-        <v>335</v>
-      </c>
       <c r="J157" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K157" s="29"/>
       <c r="L157" s="29"/>
       <c r="M157" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N157" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O157" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="P157" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q157" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="R157" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="S157" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="P157" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q157" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="R157" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="S157" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="T157" s="29"/>
       <c r="U157" s="34"/>
       <c r="V157" s="35"/>
       <c r="W157" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9763,26 +9763,26 @@
         <v>434</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D158" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="E158" s="32" t="s">
         <v>338</v>
-      </c>
-      <c r="E158" s="32" t="s">
-        <v>339</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="39"/>
       <c r="J158" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="K158" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="K158" s="29" t="s">
-        <v>324</v>
       </c>
       <c r="L158" s="29"/>
       <c r="M158" s="29"/>
@@ -9796,7 +9796,7 @@
       <c r="U158" s="34"/>
       <c r="V158" s="35"/>
       <c r="W158" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9804,26 +9804,26 @@
         <v>435</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D159" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E159" s="32" t="s">
         <v>340</v>
-      </c>
-      <c r="E159" s="32" t="s">
-        <v>341</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="39"/>
       <c r="J159" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K159" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L159" s="29"/>
       <c r="M159" s="29"/>
@@ -9837,7 +9837,7 @@
       <c r="U159" s="34"/>
       <c r="V159" s="35"/>
       <c r="W159" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9845,60 +9845,60 @@
         <v>437</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D160" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E160" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="E160" s="32" t="s">
-        <v>344</v>
       </c>
       <c r="F160" s="33">
         <v>45735</v>
       </c>
       <c r="G160" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H160" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="H160" s="33" t="s">
+      <c r="I160" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="I160" s="39" t="s">
-        <v>347</v>
-      </c>
       <c r="J160" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K160" s="29"/>
       <c r="L160" s="29"/>
       <c r="M160" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N160" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O160" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P160" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q160" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R160" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S160" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T160" s="29"/>
       <c r="U160" s="34"/>
       <c r="V160" s="35"/>
       <c r="W160" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9906,60 +9906,60 @@
         <v>438</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D161" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" s="32" t="s">
         <v>349</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>350</v>
       </c>
       <c r="F161" s="33">
         <v>45735</v>
       </c>
       <c r="G161" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="H161" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="H161" s="33" t="s">
+      <c r="I161" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="I161" s="39" t="s">
-        <v>353</v>
-      </c>
       <c r="J161" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="29"/>
       <c r="M161" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N161" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O161" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P161" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q161" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R161" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S161" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T161" s="29"/>
       <c r="U161" s="34"/>
       <c r="V161" s="35"/>
       <c r="W161" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -9967,60 +9967,60 @@
         <v>440</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D162" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E162" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="E162" s="32" t="s">
-        <v>356</v>
       </c>
       <c r="F162" s="33">
         <v>45735</v>
       </c>
       <c r="G162" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H162" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="H162" s="33" t="s">
+      <c r="I162" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="I162" s="39" t="s">
-        <v>359</v>
-      </c>
       <c r="J162" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K162" s="29"/>
       <c r="L162" s="29"/>
       <c r="M162" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N162" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O162" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P162" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q162" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R162" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S162" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T162" s="29"/>
       <c r="U162" s="34"/>
       <c r="V162" s="35"/>
       <c r="W162" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10028,60 +10028,60 @@
         <v>441</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D163" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="E163" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="E163" s="32" t="s">
-        <v>362</v>
       </c>
       <c r="F163" s="33">
         <v>45735</v>
       </c>
       <c r="G163" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="H163" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="H163" s="33" t="s">
+      <c r="I163" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="I163" s="39" t="s">
-        <v>365</v>
-      </c>
       <c r="J163" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K163" s="29"/>
       <c r="L163" s="29"/>
       <c r="M163" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N163" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O163" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P163" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q163" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R163" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S163" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T163" s="29"/>
       <c r="U163" s="34"/>
       <c r="V163" s="35"/>
       <c r="W163" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10089,60 +10089,60 @@
         <v>442</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D164" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E164" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="E164" s="32" t="s">
-        <v>368</v>
       </c>
       <c r="F164" s="33">
         <v>45735</v>
       </c>
       <c r="G164" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="H164" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="H164" s="33" t="s">
+      <c r="I164" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="I164" s="39" t="s">
-        <v>371</v>
-      </c>
       <c r="J164" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K164" s="29"/>
       <c r="L164" s="29"/>
       <c r="M164" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N164" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O164" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P164" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q164" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R164" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S164" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T164" s="29"/>
       <c r="U164" s="34"/>
       <c r="V164" s="35"/>
       <c r="W164" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10150,26 +10150,26 @@
         <v>443</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D165" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E165" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="E165" s="32" t="s">
-        <v>374</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="39"/>
       <c r="J165" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K165" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L165" s="29"/>
       <c r="M165" s="29"/>
@@ -10183,7 +10183,7 @@
       <c r="U165" s="34"/>
       <c r="V165" s="35"/>
       <c r="W165" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10191,16 +10191,16 @@
         <v>444</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D166" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E166" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="E166" s="32" t="s">
-        <v>376</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10220,7 +10220,7 @@
       <c r="U166" s="34"/>
       <c r="V166" s="35"/>
       <c r="W166" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10228,16 +10228,16 @@
         <v>445</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D167" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E167" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="E167" s="32" t="s">
-        <v>378</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10257,7 +10257,7 @@
       <c r="U167" s="34"/>
       <c r="V167" s="35"/>
       <c r="W167" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10265,16 +10265,16 @@
         <v>446</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D168" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E168" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="E168" s="32" t="s">
-        <v>380</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10294,7 +10294,7 @@
       <c r="U168" s="34"/>
       <c r="V168" s="35"/>
       <c r="W168" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10302,16 +10302,16 @@
         <v>447</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D169" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E169" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="E169" s="32" t="s">
-        <v>382</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10331,7 +10331,7 @@
       <c r="U169" s="34"/>
       <c r="V169" s="35"/>
       <c r="W169" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10339,16 +10339,16 @@
         <v>448</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D170" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E170" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="E170" s="32" t="s">
-        <v>384</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10368,7 +10368,7 @@
       <c r="U170" s="34"/>
       <c r="V170" s="35"/>
       <c r="W170" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10376,16 +10376,16 @@
         <v>449</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D171" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E171" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="E171" s="32" t="s">
-        <v>386</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10405,7 +10405,7 @@
       <c r="U171" s="34"/>
       <c r="V171" s="35"/>
       <c r="W171" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10413,16 +10413,16 @@
         <v>450</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D172" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E172" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>388</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10442,7 +10442,7 @@
       <c r="U172" s="34"/>
       <c r="V172" s="35"/>
       <c r="W172" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10450,16 +10450,16 @@
         <v>451</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D173" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E173" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>390</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10479,7 +10479,7 @@
       <c r="U173" s="34"/>
       <c r="V173" s="35"/>
       <c r="W173" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10487,16 +10487,16 @@
         <v>452</v>
       </c>
       <c r="B174" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C174" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D174" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E174" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10516,7 +10516,7 @@
       <c r="U174" s="34"/>
       <c r="V174" s="35"/>
       <c r="W174" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10524,16 +10524,16 @@
         <v>454</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D175" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E175" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="E175" s="32" t="s">
-        <v>394</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10553,7 +10553,7 @@
       <c r="U175" s="34"/>
       <c r="V175" s="35"/>
       <c r="W175" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10561,16 +10561,16 @@
         <v>455</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D176" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E176" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="E176" s="32" t="s">
-        <v>396</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10590,7 +10590,7 @@
       <c r="U176" s="34"/>
       <c r="V176" s="35"/>
       <c r="W176" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10598,16 +10598,16 @@
         <v>456</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D177" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E177" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="E177" s="32" t="s">
-        <v>398</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10627,7 +10627,7 @@
       <c r="U177" s="34"/>
       <c r="V177" s="35"/>
       <c r="W177" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10635,16 +10635,16 @@
         <v>457</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D178" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E178" s="32" t="s">
         <v>399</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>400</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -10664,7 +10664,7 @@
       <c r="U178" s="34"/>
       <c r="V178" s="35"/>
       <c r="W178" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10672,16 +10672,16 @@
         <v>458</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D179" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="E179" s="32" t="s">
         <v>401</v>
-      </c>
-      <c r="E179" s="32" t="s">
-        <v>402</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -10701,7 +10701,7 @@
       <c r="U179" s="34"/>
       <c r="V179" s="35"/>
       <c r="W179" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10709,16 +10709,16 @@
         <v>459</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D180" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E180" s="32" t="s">
         <v>403</v>
-      </c>
-      <c r="E180" s="32" t="s">
-        <v>404</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -10738,7 +10738,7 @@
       <c r="U180" s="34"/>
       <c r="V180" s="35"/>
       <c r="W180" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10746,31 +10746,31 @@
         <v>460</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D181" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E181" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="E181" s="32" t="s">
-        <v>406</v>
-      </c>
       <c r="F181" s="33">
-        <v>45748</v>
+        <v>45763</v>
       </c>
       <c r="G181" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="H181" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="H181" s="33" t="s">
+      <c r="I181" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="I181" s="39" t="s">
-        <v>474</v>
-      </c>
       <c r="J181" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K181" s="29"/>
       <c r="L181" s="29"/>
@@ -10785,7 +10785,7 @@
       <c r="U181" s="34"/>
       <c r="V181" s="35"/>
       <c r="W181" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10793,16 +10793,16 @@
         <v>461</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D182" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E182" s="31" t="s">
         <v>407</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>408</v>
       </c>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
@@ -10822,7 +10822,7 @@
       <c r="U182" s="31"/>
       <c r="V182" s="31"/>
       <c r="W182" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10830,16 +10830,16 @@
         <v>462</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D183" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E183" s="29" t="s">
         <v>409</v>
-      </c>
-      <c r="E183" s="29" t="s">
-        <v>410</v>
       </c>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
@@ -10859,7 +10859,7 @@
       <c r="U183" s="31"/>
       <c r="V183" s="31"/>
       <c r="W183" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10867,16 +10867,16 @@
         <v>463</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D184" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="E184" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="E184" s="29" t="s">
-        <v>412</v>
       </c>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
@@ -10896,7 +10896,7 @@
       <c r="U184" s="31"/>
       <c r="V184" s="31"/>
       <c r="W184" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10904,16 +10904,16 @@
         <v>464</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D185" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E185" s="32" t="s">
         <v>413</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>414</v>
       </c>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
@@ -10933,7 +10933,7 @@
       <c r="U185" s="31"/>
       <c r="V185" s="31"/>
       <c r="W185" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10941,16 +10941,16 @@
         <v>465</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D186" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="E186" s="32" t="s">
         <v>415</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>416</v>
       </c>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
@@ -10970,7 +10970,7 @@
       <c r="U186" s="31"/>
       <c r="V186" s="31"/>
       <c r="W186" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10978,16 +10978,16 @@
         <v>466</v>
       </c>
       <c r="B187" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C187" s="37" t="s">
-        <v>45</v>
-      </c>
       <c r="D187" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="E187" s="32" t="s">
         <v>417</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>418</v>
       </c>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
@@ -11007,7 +11007,7 @@
       <c r="U187" s="31"/>
       <c r="V187" s="31"/>
       <c r="W187" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11015,16 +11015,16 @@
         <v>467</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D188" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="E188" s="29" t="s">
         <v>419</v>
-      </c>
-      <c r="E188" s="29" t="s">
-        <v>420</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -11044,7 +11044,7 @@
       <c r="U188" s="31"/>
       <c r="V188" s="31"/>
       <c r="W188" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11052,16 +11052,16 @@
         <v>468</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D189" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E189" s="29" t="s">
         <v>421</v>
-      </c>
-      <c r="E189" s="29" t="s">
-        <v>422</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -11081,7 +11081,7 @@
       <c r="U189" s="31"/>
       <c r="V189" s="31"/>
       <c r="W189" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11089,16 +11089,16 @@
         <v>469</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D190" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="E190" s="29" t="s">
         <v>423</v>
-      </c>
-      <c r="E190" s="29" t="s">
-        <v>424</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -11118,7 +11118,7 @@
       <c r="U190" s="31"/>
       <c r="V190" s="31"/>
       <c r="W190" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11126,26 +11126,26 @@
         <v>470</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D191" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="E191" s="29" t="s">
         <v>425</v>
-      </c>
-      <c r="E191" s="29" t="s">
-        <v>426</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
       <c r="J191" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K191" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -11159,7 +11159,7 @@
       <c r="U191" s="31"/>
       <c r="V191" s="31"/>
       <c r="W191" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15338,42 +15338,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -15403,162 +15403,162 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="41" t="s">
         <v>439</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>441</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>444</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>446</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>448</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>450</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>452</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="41" t="s">
         <v>455</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>457</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -16536,26 +16536,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -17569,14 +17569,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17775,21 +17773,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
-    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17814,9 +17811,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
+    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250418/Winsap_CS/20.17.00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/francesco_navarra_eng_it/Documents/Desktop/CDA2/CS_SESSIONE_20250512/Winsap_CS/20.17.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CB2A62-BE90-45BA-8D69-BFB08AE7F5EB}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26A1A38-3400-48C4-A2A7-EA2A39C5FE17}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="474">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1360,15 +1360,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-03-19T12:28:31Z</t>
-  </si>
-  <si>
-    <t>62800d3fd629a362</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.65348d142b9ed6590b99096d8fc73df132dcec320c81e438d3517397d330acbc.69ef7191df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: PROVA]</t>
   </si>
   <si>
@@ -1399,15 +1390,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-03-19T12:37:19Z</t>
-  </si>
-  <si>
-    <t>dfd31bb8ed8e2c69</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.8aa65fe0bf3c5e0ce900afd644a792555726ac91a2e2155122acb3ff03a1673b.fc1bbeb4d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b28| Sezione Epicrisi: La sezione DEVE contenere l'elemento text obbligatorio.]</t>
   </si>
   <si>
@@ -1418,15 +1400,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-03-19T12:45:11Z</t>
-  </si>
-  <si>
-    <t>be9de617cefd9f6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.eddbefe96295f3a6f2df77bd0b5b07bf5983c7ceec6d11496400b47899efb45e.4fd7e45a89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b195| Sezione Diagnosi: L'elemento entry/organizer/component/observation (Linfonodi) deve avere l'elemento value con @xsi:type='IVL_PQ', che identifica il numero dei linfonodi.]</t>
   </si>
   <si>
@@ -1437,15 +1410,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-03-19T12:49:46Z</t>
-  </si>
-  <si>
-    <t>d86d6f8b7bb9d73f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.708e6ca4f0b0b6c4293abf91a756334d99cc657b79a9bce461dc82f031aa4a60.eaf9bd5822^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]</t>
   </si>
   <si>
@@ -1456,15 +1420,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-03-19T13:15:11Z</t>
-  </si>
-  <si>
-    <t>798e2dcf628f2502</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.fff62558a274e6d3ba3f54fe7788e0a4e6fc806b99fb17f569a2b089d601b1f4.510d53dd30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b103| SSotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime è obbligatorio.]</t>
   </si>
   <si>
@@ -1473,15 +1428,6 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2025-03-19T14:14:34Z</t>
-  </si>
-  <si>
-    <t>f165cd04a98368a4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.8564f4e9a85138f133549caf1f740d24ee30e697ebb3abcd68c0f2af718ab2ca.711fd05147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: PROVA]</t>
@@ -1790,40 +1736,91 @@
     <t>subject_application_vendor:Engineering Ingegneria Informatica SpA</t>
   </si>
   <si>
-    <t>2025-04-18T11:06:20Z</t>
-  </si>
-  <si>
-    <t>8b5da3f5062fa2731c83da80b384cd94</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1000000.a213157dfbf4c9c78bb959bf0a4d9e18161f5a7eade5b8458b050c4df3c0b977.cb5c86867d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-18T10:17:38Z</t>
-  </si>
-  <si>
-    <t>af3a3ff04d7b3cbdcfd3bd0358dfb53e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.33f11191dc0436e58d3978581bc8818b18e46665257f64a1cb5f7e04dbddfac0.e25c014b57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-18T10:21:04Z</t>
-  </si>
-  <si>
-    <t>35126f97641ba4744dc1b64bdfb5f02b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.fc688e55d0747f453a02a7e936d255e300fa2d3a07c548b8b212e597c01b0d99.5e61601573^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-04-18T10:32:34Z</t>
-  </si>
-  <si>
-    <t>1328ffa01a5feb1621b7ab1c3e66bce4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1000000.cade55a9ed607a81c1f30b944d00db6385773fe008ad8b1ca34005a6ace240da.6ea630541b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-05-12T14:48:22Z</t>
+  </si>
+  <si>
+    <t>44e3ebab565408d15828085c8926b7b4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.dddaaf6cfc6cfbd9062b54e962b7ef05a4c9e3a60ee7fd9ec38d95e27ec798d9.e432f7fbf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T14:59:50Z</t>
+  </si>
+  <si>
+    <t>669eb6851664d07a81c58c30eb76963b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.867ccf0ae50fe6a5d10f39a1ecc7aaa55d1ddea0af05348fa9acc93486f360ad.57282926f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T15:08:37Z</t>
+  </si>
+  <si>
+    <t>d763fcafc199667e5356b39349996ccb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.1227a0eb8e9841e4b93211b9f2acdbff5d6fe30e0eb73106ecad54854439d320.a67f3ebc65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T15:28:03Z</t>
+  </si>
+  <si>
+    <t>e144e238214398f4d973c2770a467897</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.2246f8d31740df3c521966f31807da294e2ee47691b8cef912fcb781859427ce.a934d9613b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T15:46:03Z</t>
+  </si>
+  <si>
+    <t>332ad2eff902cabdc8e1696548aff58d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.ffcc1a1d984c6995009ce8883e76ea9905f87988de50bb44f5f8e24163e8cf52.805f9f5dab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3f7d3983801cffc1758e8233bc2e9e55</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.8198544c6a0dbda270b604d7b45b42c7ff66be03ebd200359e3afebc2b38de4d.5f89756cc9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T16:10:44Z</t>
+  </si>
+  <si>
+    <t>79c91c0eee9e7b30560723a6d1bd1ff5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.88a24e27dd44e32a91a0f09f03deddf8226216c9576de564e9c8f52f856a5ff1.0b4a0ad17a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T16:19:27Z</t>
+  </si>
+  <si>
+    <t>c23cd5c4e9b9b4befce6f397dd480436</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.2c034757403e570ee0bea670909421bb316d2591772d61c96c408bbc9e55f7e3.ac91d51d9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T16:31:42Z</t>
+  </si>
+  <si>
+    <t>696b9cf4ef95d03eaead4d8da174a934</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.8e53f0c36f103d32aa6373f5da7e742af452a58a1f6b99e3ac01ca8a3e6aefa1.875c20fc28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-12T16:43:07Z</t>
+  </si>
+  <si>
+    <t>03299a6afedb736c0afa667c563b517f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.6fd5311f19dd953d091b5543964e1ed6737f8422a7eee0c00c6c70cc689da9d2.61cc39a942^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3888,10 +3885,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
+      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3964,7 +3961,7 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="56" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D3" s="48"/>
       <c r="F3" s="6"/>
@@ -3990,7 +3987,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="53"/>
       <c r="C4" s="56" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="4"/>
@@ -4017,7 +4014,7 @@
       <c r="A5" s="54"/>
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D5" s="48"/>
       <c r="F5" s="6"/>
@@ -9389,16 +9386,16 @@
         <v>316</v>
       </c>
       <c r="F150" s="33">
-        <v>45765</v>
+        <v>45789</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="I150" s="39" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="J150" s="29" t="s">
         <v>76</v>
@@ -9436,16 +9433,16 @@
         <v>318</v>
       </c>
       <c r="F151" s="33">
-        <v>45765</v>
+        <v>45789</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="I151" s="39" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="J151" s="29" t="s">
         <v>76</v>
@@ -9483,16 +9480,16 @@
         <v>320</v>
       </c>
       <c r="F152" s="33">
-        <v>45765</v>
+        <v>45789</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="I152" s="39" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="J152" s="29" t="s">
         <v>76</v>
@@ -9714,16 +9711,16 @@
         <v>331</v>
       </c>
       <c r="F157" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="I157" s="39" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
       <c r="J157" s="29" t="s">
         <v>76</v>
@@ -9737,7 +9734,7 @@
         <v>76</v>
       </c>
       <c r="O157" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P157" s="29" t="s">
         <v>76</v>
@@ -9749,7 +9746,7 @@
         <v>322</v>
       </c>
       <c r="S157" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T157" s="29"/>
       <c r="U157" s="34"/>
@@ -9769,10 +9766,10 @@
         <v>314</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -9810,10 +9807,10 @@
         <v>314</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -9823,7 +9820,7 @@
         <v>322</v>
       </c>
       <c r="K159" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L159" s="29"/>
       <c r="M159" s="29"/>
@@ -9851,22 +9848,22 @@
         <v>314</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F160" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="I160" s="39" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="J160" s="29" t="s">
         <v>76</v>
@@ -9880,7 +9877,7 @@
         <v>76</v>
       </c>
       <c r="O160" s="29" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P160" s="29" t="s">
         <v>76</v>
@@ -9892,7 +9889,7 @@
         <v>322</v>
       </c>
       <c r="S160" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T160" s="29"/>
       <c r="U160" s="34"/>
@@ -9912,22 +9909,22 @@
         <v>314</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F161" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>351</v>
+        <v>463</v>
       </c>
       <c r="I161" s="39" t="s">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="J161" s="29" t="s">
         <v>76</v>
@@ -9941,7 +9938,7 @@
         <v>76</v>
       </c>
       <c r="O161" s="29" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P161" s="29" t="s">
         <v>76</v>
@@ -9953,7 +9950,7 @@
         <v>322</v>
       </c>
       <c r="S161" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T161" s="29"/>
       <c r="U161" s="34"/>
@@ -9973,22 +9970,22 @@
         <v>314</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F162" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>356</v>
+        <v>465</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="I162" s="39" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
       <c r="J162" s="29" t="s">
         <v>76</v>
@@ -10002,7 +9999,7 @@
         <v>76</v>
       </c>
       <c r="O162" s="29" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="P162" s="29" t="s">
         <v>76</v>
@@ -10014,7 +10011,7 @@
         <v>322</v>
       </c>
       <c r="S162" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T162" s="29"/>
       <c r="U162" s="34"/>
@@ -10034,22 +10031,22 @@
         <v>314</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F163" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="I163" s="39" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="J163" s="29" t="s">
         <v>76</v>
@@ -10063,7 +10060,7 @@
         <v>76</v>
       </c>
       <c r="O163" s="29" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="P163" s="29" t="s">
         <v>76</v>
@@ -10075,7 +10072,7 @@
         <v>322</v>
       </c>
       <c r="S163" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T163" s="29"/>
       <c r="U163" s="34"/>
@@ -10095,22 +10092,22 @@
         <v>314</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F164" s="33">
-        <v>45735</v>
+        <v>45789</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>369</v>
+        <v>472</v>
       </c>
       <c r="I164" s="39" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="J164" s="29" t="s">
         <v>76</v>
@@ -10124,7 +10121,7 @@
         <v>76</v>
       </c>
       <c r="O164" s="29" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="P164" s="29" t="s">
         <v>76</v>
@@ -10136,7 +10133,7 @@
         <v>322</v>
       </c>
       <c r="S164" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T164" s="29"/>
       <c r="U164" s="34"/>
@@ -10156,10 +10153,10 @@
         <v>314</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -10169,7 +10166,7 @@
         <v>322</v>
       </c>
       <c r="K165" s="29" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L165" s="29"/>
       <c r="M165" s="29"/>
@@ -10197,10 +10194,10 @@
         <v>53</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10234,10 +10231,10 @@
         <v>53</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10271,10 +10268,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10308,10 +10305,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10345,10 +10342,10 @@
         <v>57</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10382,10 +10379,10 @@
         <v>57</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10419,10 +10416,10 @@
         <v>51</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10456,10 +10453,10 @@
         <v>51</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10493,10 +10490,10 @@
         <v>44</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10530,10 +10527,10 @@
         <v>63</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10567,10 +10564,10 @@
         <v>63</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10604,10 +10601,10 @@
         <v>61</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10641,10 +10638,10 @@
         <v>61</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -10678,10 +10675,10 @@
         <v>59</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -10715,10 +10712,10 @@
         <v>59</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -10752,22 +10749,22 @@
         <v>314</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F181" s="33">
-        <v>45765</v>
+        <v>45789</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I181" s="39" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J181" s="29" t="s">
         <v>76</v>
@@ -10799,10 +10796,10 @@
         <v>57</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
@@ -10836,10 +10833,10 @@
         <v>55</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
@@ -10873,10 +10870,10 @@
         <v>63</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
@@ -10910,10 +10907,10 @@
         <v>59</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
@@ -10947,10 +10944,10 @@
         <v>61</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
@@ -10984,10 +10981,10 @@
         <v>44</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
@@ -11021,10 +11018,10 @@
         <v>51</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -11058,10 +11055,10 @@
         <v>57</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -11095,10 +11092,10 @@
         <v>53</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -11132,10 +11129,10 @@
         <v>314</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -11145,7 +11142,7 @@
         <v>322</v>
       </c>
       <c r="K191" s="31" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -15338,17 +15335,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
@@ -15358,22 +15355,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -15403,22 +15400,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15426,13 +15423,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15440,13 +15437,13 @@
         <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15454,13 +15451,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15468,13 +15465,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15482,13 +15479,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
@@ -15496,13 +15493,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
@@ -15510,13 +15507,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
@@ -15524,27 +15521,27 @@
         <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>437</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15552,13 +15549,13 @@
         <v>314</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -16544,7 +16541,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
@@ -16552,7 +16549,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>322</v>
@@ -17569,12 +17566,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17773,20 +17772,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
+    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17811,12 +17811,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
-    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.17.00/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/francesco_navarra_eng_it/Documents/Desktop/CDA2/CS_SESSIONE_20250512/Winsap_CS/20.17.00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250514/Winsap_CS/20.17.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26A1A38-3400-48C4-A2A7-EA2A39C5FE17}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF475BEE-320F-41DC-8BCF-755042C0828F}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1736,42 +1736,6 @@
     <t>subject_application_vendor:Engineering Ingegneria Informatica SpA</t>
   </si>
   <si>
-    <t>2025-05-12T14:48:22Z</t>
-  </si>
-  <si>
-    <t>44e3ebab565408d15828085c8926b7b4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.dddaaf6cfc6cfbd9062b54e962b7ef05a4c9e3a60ee7fd9ec38d95e27ec798d9.e432f7fbf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12T14:59:50Z</t>
-  </si>
-  <si>
-    <t>669eb6851664d07a81c58c30eb76963b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.867ccf0ae50fe6a5d10f39a1ecc7aaa55d1ddea0af05348fa9acc93486f360ad.57282926f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12T15:08:37Z</t>
-  </si>
-  <si>
-    <t>d763fcafc199667e5356b39349996ccb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1000000.1227a0eb8e9841e4b93211b9f2acdbff5d6fe30e0eb73106ecad54854439d320.a67f3ebc65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-12T15:28:03Z</t>
-  </si>
-  <si>
-    <t>e144e238214398f4d973c2770a467897</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1000000.2246f8d31740df3c521966f31807da294e2ee47691b8cef912fcb781859427ce.a934d9613b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-05-12T15:46:03Z</t>
   </si>
   <si>
@@ -1821,6 +1785,42 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.1.6fd5311f19dd953d091b5543964e1ed6737f8422a7eee0c00c6c70cc689da9d2.61cc39a942^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T15:54:09Z</t>
+  </si>
+  <si>
+    <t>3aa681d913da64b6bdd6256682715a23</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.43b18ca001d7a961ef0740dad71af15969debddfbea33bcc8f37487b22acb9ed.d0920b1ca2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T15:57:33Z</t>
+  </si>
+  <si>
+    <t>0f550c4ebfd0321e772557521e8fd347</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.0b8a7a0bf44dadafbecc51bf8966e1487114cde65181d2f242e1bfdbfc58021a.7bb1e582f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T16:01:31Z</t>
+  </si>
+  <si>
+    <t>5c7c652decb9655f20bb2186418c4236</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.633985c8f021459252c8a3b25e760df85f046aec4832201a053e45fe61c615c4.872013fd2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-14T16:03:10Z</t>
+  </si>
+  <si>
+    <t>b74d389b8cfe2d9b077665c9280d71b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1000000.a2c8d50074a7ab5c8bd433079af44f04db4b24a947b7bb8eb7f0cac017d15d51.ecfa9c439b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3888,7 +3888,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I164" sqref="I164"/>
+      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9386,16 +9386,16 @@
         <v>316</v>
       </c>
       <c r="F150" s="33">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="I150" s="39" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="J150" s="29" t="s">
         <v>76</v>
@@ -9433,16 +9433,16 @@
         <v>318</v>
       </c>
       <c r="F151" s="33">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="I151" s="39" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="J151" s="29" t="s">
         <v>76</v>
@@ -9480,16 +9480,16 @@
         <v>320</v>
       </c>
       <c r="F152" s="33">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="I152" s="39" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="J152" s="29" t="s">
         <v>76</v>
@@ -9714,13 +9714,13 @@
         <v>45789</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="I157" s="39" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="J157" s="29" t="s">
         <v>76</v>
@@ -9857,13 +9857,13 @@
         <v>45789</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I160" s="39" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="J160" s="29" t="s">
         <v>76</v>
@@ -9918,13 +9918,13 @@
         <v>45789</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="I161" s="39" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J161" s="29" t="s">
         <v>76</v>
@@ -9979,13 +9979,13 @@
         <v>45789</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="I162" s="39" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J162" s="29" t="s">
         <v>76</v>
@@ -10040,13 +10040,13 @@
         <v>45789</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I163" s="39" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J163" s="29" t="s">
         <v>76</v>
@@ -10101,13 +10101,13 @@
         <v>45789</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I164" s="39" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="J164" s="29" t="s">
         <v>76</v>
@@ -10755,16 +10755,16 @@
         <v>387</v>
       </c>
       <c r="F181" s="33">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="I181" s="39" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="J181" s="29" t="s">
         <v>76</v>
@@ -17566,14 +17566,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17772,21 +17770,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
-    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17811,9 +17808,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
+    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>